--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H2">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I2">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J2">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N2">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O2">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P2">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q2">
-        <v>4.752467381283666</v>
+        <v>10.70335137016</v>
       </c>
       <c r="R2">
-        <v>28.514804287702</v>
+        <v>64.22010822096</v>
       </c>
       <c r="S2">
-        <v>0.07678911466041737</v>
+        <v>0.08268415375437735</v>
       </c>
       <c r="T2">
-        <v>0.0662366128895135</v>
+        <v>0.06419437378067316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H3">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I3">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J3">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P3">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q3">
-        <v>3.634394843156111</v>
+        <v>5.556257641563889</v>
       </c>
       <c r="R3">
-        <v>32.709553588405</v>
+        <v>50.006318774075</v>
       </c>
       <c r="S3">
-        <v>0.05872359343936469</v>
+        <v>0.04292248710201271</v>
       </c>
       <c r="T3">
-        <v>0.07598053337361983</v>
+        <v>0.04998628011858055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H4">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I4">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J4">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N4">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O4">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P4">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q4">
-        <v>1.403178836539222</v>
+        <v>2.13311172162</v>
       </c>
       <c r="R4">
-        <v>12.628609528853</v>
+        <v>19.19800549458</v>
       </c>
       <c r="S4">
-        <v>0.02267219360461509</v>
+        <v>0.01647844039367046</v>
       </c>
       <c r="T4">
-        <v>0.02933480841235222</v>
+        <v>0.01919031242242997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H5">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I5">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J5">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N5">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O5">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P5">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q5">
-        <v>6.627484401081335</v>
+        <v>6.660852189751666</v>
       </c>
       <c r="R5">
-        <v>39.76490640648801</v>
+        <v>39.96511313851</v>
       </c>
       <c r="S5">
-        <v>0.1070851452003655</v>
+        <v>0.05145555887551648</v>
       </c>
       <c r="T5">
-        <v>0.09236930703291693</v>
+        <v>0.03994909821972348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H6">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I6">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J6">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N6">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O6">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P6">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q6">
-        <v>3.679444387505</v>
+        <v>26.41748816486</v>
       </c>
       <c r="R6">
-        <v>33.114999487545</v>
+        <v>237.75739348374</v>
       </c>
       <c r="S6">
-        <v>0.05945149209681366</v>
+        <v>0.2040769827773183</v>
       </c>
       <c r="T6">
-        <v>0.07692233759566597</v>
+        <v>0.2376621187541443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H7">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I7">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J7">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N7">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O7">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P7">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q7">
-        <v>1.018949128878333</v>
+        <v>1.608277926571666</v>
       </c>
       <c r="R7">
-        <v>9.170542159905001</v>
+        <v>14.474501339145</v>
       </c>
       <c r="S7">
-        <v>0.01646391131451313</v>
+        <v>0.01242406184395262</v>
       </c>
       <c r="T7">
-        <v>0.02130211538202856</v>
+        <v>0.0144687010812396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H8">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I8">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J8">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N8">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O8">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P8">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q8">
-        <v>2.4185958448095</v>
+        <v>2.836244580312</v>
       </c>
       <c r="R8">
-        <v>9.674383379237998</v>
+        <v>11.344978321248</v>
       </c>
       <c r="S8">
-        <v>0.03907903384580858</v>
+        <v>0.02191019194393047</v>
       </c>
       <c r="T8">
-        <v>0.02247248062339665</v>
+        <v>0.01134043213353123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H9">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I9">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J9">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P9">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q9">
-        <v>1.8495933924075</v>
+        <v>1.472333765164167</v>
       </c>
       <c r="R9">
-        <v>11.097560354445</v>
+        <v>8.834002590985</v>
       </c>
       <c r="S9">
-        <v>0.02988524227311313</v>
+        <v>0.01137388348811868</v>
       </c>
       <c r="T9">
-        <v>0.02577835715787844</v>
+        <v>0.008830462607660941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H10">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I10">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J10">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N10">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O10">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P10">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q10">
-        <v>0.7140969587594999</v>
+        <v>0.565246001034</v>
       </c>
       <c r="R10">
-        <v>4.284581752557</v>
+        <v>3.391476006204</v>
       </c>
       <c r="S10">
-        <v>0.01153819034314495</v>
+        <v>0.004366565727146034</v>
       </c>
       <c r="T10">
-        <v>0.009952590944486627</v>
+        <v>0.003390116965567295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H11">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I11">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J11">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N11">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O11">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P11">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q11">
-        <v>3.372817727718</v>
+        <v>1.7650365077345</v>
       </c>
       <c r="R11">
-        <v>13.491270910872</v>
+        <v>7.060146030938</v>
       </c>
       <c r="S11">
-        <v>0.05449709938934285</v>
+        <v>0.0136350330789362</v>
       </c>
       <c r="T11">
-        <v>0.03133867164911197</v>
+        <v>0.00705731687179326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H12">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I12">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J12">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N12">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O12">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P12">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q12">
-        <v>1.8725197235175</v>
+        <v>7.000280103102</v>
       </c>
       <c r="R12">
-        <v>11.235118341105</v>
+        <v>42.001680618612</v>
       </c>
       <c r="S12">
-        <v>0.03025567988522209</v>
+        <v>0.05407766374766242</v>
       </c>
       <c r="T12">
-        <v>0.02609788855007491</v>
+        <v>0.04198484960147781</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H13">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I13">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J13">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N13">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O13">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P13">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q13">
-        <v>0.5185571896575</v>
+        <v>0.4261720834085</v>
       </c>
       <c r="R13">
-        <v>3.111343137945</v>
+        <v>2.557032500451</v>
       </c>
       <c r="S13">
-        <v>0.008378710320330088</v>
+        <v>0.003292209781004787</v>
       </c>
       <c r="T13">
-        <v>0.007227292493934052</v>
+        <v>0.002556007840075655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H14">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I14">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J14">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N14">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O14">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P14">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q14">
-        <v>6.758215929511999</v>
+        <v>8.722950393824</v>
       </c>
       <c r="R14">
-        <v>40.54929557707199</v>
+        <v>52.337702362944</v>
       </c>
       <c r="S14">
-        <v>0.1091974707611739</v>
+        <v>0.06738541477443512</v>
       </c>
       <c r="T14">
-        <v>0.09419135291906405</v>
+        <v>0.05231672946966306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H15">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I15">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J15">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P15">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q15">
-        <v>5.168268007453333</v>
+        <v>4.528204120981112</v>
       </c>
       <c r="R15">
-        <v>46.51441206708</v>
+        <v>40.75383708883</v>
       </c>
       <c r="S15">
-        <v>0.08350751152612962</v>
+        <v>0.03498070023322149</v>
       </c>
       <c r="T15">
-        <v>0.1080476328992117</v>
+        <v>0.04073750611063524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H16">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I16">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J16">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N16">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O16">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P16">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q16">
-        <v>1.995381515378666</v>
+        <v>1.738430056968</v>
       </c>
       <c r="R16">
-        <v>17.958433638408</v>
+        <v>15.645870512712</v>
       </c>
       <c r="S16">
-        <v>0.03224084831789067</v>
+        <v>0.01342949634656574</v>
       </c>
       <c r="T16">
-        <v>0.04171537721275064</v>
+        <v>0.01563960086085997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H17">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I17">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J17">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N17">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O17">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P17">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q17">
-        <v>9.424571924128001</v>
+        <v>5.428419681127334</v>
       </c>
       <c r="R17">
-        <v>56.54743154476801</v>
+        <v>32.570518086764</v>
       </c>
       <c r="S17">
-        <v>0.1522797477700392</v>
+        <v>0.041934929727614</v>
       </c>
       <c r="T17">
-        <v>0.131353183957936</v>
+        <v>0.0325574663483594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H18">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I18">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J18">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N18">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O18">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P18">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q18">
-        <v>5.23233042468</v>
+        <v>21.529559370904</v>
       </c>
       <c r="R18">
-        <v>47.09097382212</v>
+        <v>193.766034338136</v>
       </c>
       <c r="S18">
-        <v>0.08454261516960024</v>
+        <v>0.1663173837542821</v>
       </c>
       <c r="T18">
-        <v>0.1093869195865818</v>
+        <v>0.1936883879345651</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.539082</v>
+      </c>
+      <c r="I19">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J19">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.554843</v>
+      </c>
+      <c r="N19">
+        <v>7.664529</v>
+      </c>
+      <c r="O19">
+        <v>0.03029950930872554</v>
+      </c>
+      <c r="P19">
+        <v>0.03400792338799259</v>
+      </c>
+      <c r="Q19">
+        <v>1.310704291375334</v>
+      </c>
+      <c r="R19">
+        <v>11.796338622378</v>
+      </c>
+      <c r="S19">
+        <v>0.01012528425972624</v>
+      </c>
+      <c r="T19">
+        <v>0.01179161156444723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J20">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.002896</v>
+      </c>
+      <c r="N20">
+        <v>34.005792</v>
+      </c>
+      <c r="O20">
+        <v>0.2016481661015148</v>
+      </c>
+      <c r="P20">
+        <v>0.1508855102621455</v>
+      </c>
+      <c r="Q20">
+        <v>3.840534801632</v>
+      </c>
+      <c r="R20">
+        <v>23.043208809792</v>
+      </c>
+      <c r="S20">
+        <v>0.02966840562877181</v>
+      </c>
+      <c r="T20">
+        <v>0.02303397487827803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J21">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.826438333333334</v>
+      </c>
+      <c r="N21">
+        <v>26.479315</v>
+      </c>
+      <c r="O21">
+        <v>0.1046783502719053</v>
+      </c>
+      <c r="P21">
+        <v>0.1174901309508416</v>
+      </c>
+      <c r="Q21">
+        <v>1.993674700687778</v>
+      </c>
+      <c r="R21">
+        <v>17.94307230619</v>
+      </c>
+      <c r="S21">
+        <v>0.01540127944855241</v>
+      </c>
+      <c r="T21">
+        <v>0.01793588211396489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J22">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.388572</v>
+      </c>
+      <c r="N22">
+        <v>10.165716</v>
+      </c>
+      <c r="O22">
+        <v>0.04018723219285363</v>
+      </c>
+      <c r="P22">
+        <v>0.04510582332092299</v>
+      </c>
+      <c r="Q22">
+        <v>0.765394830024</v>
+      </c>
+      <c r="R22">
+        <v>6.888553470216</v>
+      </c>
+      <c r="S22">
+        <v>0.005912729725471387</v>
+      </c>
+      <c r="T22">
+        <v>0.006885793072065751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J23">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.581151</v>
+      </c>
+      <c r="N23">
+        <v>21.162302</v>
+      </c>
+      <c r="O23">
+        <v>0.1254886046702403</v>
+      </c>
+      <c r="P23">
+        <v>0.09389826108421828</v>
+      </c>
+      <c r="Q23">
+        <v>2.390021009175333</v>
+      </c>
+      <c r="R23">
+        <v>14.340126055052</v>
+      </c>
+      <c r="S23">
+        <v>0.01846308298817357</v>
+      </c>
+      <c r="T23">
+        <v>0.01433437964434214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.585544</v>
-      </c>
-      <c r="H19">
-        <v>1.756632</v>
-      </c>
-      <c r="I19">
-        <v>0.4851805936269489</v>
-      </c>
-      <c r="J19">
-        <v>0.5149870038950203</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.474605</v>
-      </c>
-      <c r="N19">
-        <v>7.423815</v>
-      </c>
-      <c r="O19">
-        <v>0.0482550217169584</v>
-      </c>
-      <c r="P19">
-        <v>0.05882194519543864</v>
-      </c>
-      <c r="Q19">
-        <v>1.44899011012</v>
-      </c>
-      <c r="R19">
-        <v>13.04091099108</v>
-      </c>
-      <c r="S19">
-        <v>0.02341240008211519</v>
-      </c>
-      <c r="T19">
-        <v>0.03029253731947603</v>
+      <c r="G24">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J24">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>41.965716</v>
+      </c>
+      <c r="N24">
+        <v>125.897148</v>
+      </c>
+      <c r="O24">
+        <v>0.4976981374547604</v>
+      </c>
+      <c r="P24">
+        <v>0.5586123509938791</v>
+      </c>
+      <c r="Q24">
+        <v>9.479020090072</v>
+      </c>
+      <c r="R24">
+        <v>85.31118081064801</v>
+      </c>
+      <c r="S24">
+        <v>0.07322610717549759</v>
+      </c>
+      <c r="T24">
+        <v>0.08527699470369195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J25">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.554843</v>
+      </c>
+      <c r="N25">
+        <v>7.664529</v>
+      </c>
+      <c r="O25">
+        <v>0.03029950930872554</v>
+      </c>
+      <c r="P25">
+        <v>0.03400792338799259</v>
+      </c>
+      <c r="Q25">
+        <v>0.5770760142393333</v>
+      </c>
+      <c r="R25">
+        <v>5.193684128154</v>
+      </c>
+      <c r="S25">
+        <v>0.004457953424041896</v>
+      </c>
+      <c r="T25">
+        <v>0.005191602902230107</v>
       </c>
     </row>
   </sheetData>
